--- a/datas/test2.xlsx
+++ b/datas/test2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7950" windowWidth="19770"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7950" windowWidth="10140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
     <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -31,21 +31,83 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -75,60 +137,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -153,27 +161,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -187,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
@@ -196,25 +183,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DB00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,60 +321,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -316,60 +333,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -404,67 +367,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000DB00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,6 +392,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -494,6 +412,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,21 +466,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -547,10 +480,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="27" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="16" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -559,147 +492,138 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="10" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="19" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="18" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="18" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="10" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="9" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="9" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="24" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="17" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="36" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="35" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="34" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="37" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="38" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="39" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -1046,13 +970,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="16.625"/>
     <col customWidth="1" max="2" min="2" width="22"/>
@@ -1065,160 +989,47 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>位置说明</t>
-        </is>
+      <c r="A1" t="n">
+        <v>2</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>具体动作说明</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>tag</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>act</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>pos</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>refer</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>事件id</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
+      <c r="B1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
+      <c r="A2" t="n">
+        <v>3</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>点击存为草稿</t>
-        </is>
+      <c r="B2" t="n">
+        <v>3</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>comic_save</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>draft</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>499</v>
-      </c>
-      <c r="H2" s="1" t="n"/>
-      <c r="I2" s="8" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>点击发布作品</t>
-        </is>
+      <c r="A3" t="n">
+        <v>4</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>comic_save</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>draft</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>499</v>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>漫画ID</t>
-        </is>
-      </c>
-      <c r="I3" s="9" t="inlineStr">
-        <is>
-          <t>value-[None]，refer-draft,event_id-499</t>
-        </is>
+      <c r="B3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n"/>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>点击预览</t>
-        </is>
+      <c r="A4" t="n">
+        <v>6</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>comic_save</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>preview</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>499</v>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>漫画ID</t>
-        </is>
-      </c>
-      <c r="I4" s="9" t="inlineStr">
-        <is>
-          <t>value-[]，refer-publish,event_id-499</t>
-        </is>
+      <c r="B4" t="n">
+        <v>6</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/datas/test2.xlsx
+++ b/datas/test2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7950" windowWidth="10140"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8370" windowWidth="20385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
     <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -30,9 +30,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="黑体"/>
+      <charset val="134"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -93,50 +122,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -161,6 +146,27 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -173,6 +179,11 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="黑体"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -183,6 +194,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -237,6 +278,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -286,48 +339,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,6 +385,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -392,15 +427,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -412,36 +438,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,6 +462,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -480,10 +491,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="16" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="23" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -492,138 +503,144 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="10" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="15" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="9" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="9" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="24" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="14" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="14" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -973,63 +990,66 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="16.625"/>
-    <col customWidth="1" max="2" min="2" width="22"/>
-    <col customWidth="1" max="3" min="3" width="5.25"/>
-    <col customWidth="1" max="4" min="4" width="10.25"/>
-    <col customWidth="1" max="5" min="5" width="15"/>
-    <col customWidth="1" max="6" min="6" width="21.125"/>
-    <col customWidth="1" max="7" min="7" width="8.375"/>
-    <col customWidth="1" max="8" min="8" width="7.375"/>
+    <col customWidth="1" max="1" min="1" width="19"/>
+    <col customWidth="1" max="2" min="2" width="19"/>
+    <col customWidth="1" max="3" min="3" width="29"/>
+    <col customWidth="1" max="4" min="4" width="29"/>
+    <col customWidth="1" max="5" min="5" width="29"/>
+    <col customWidth="1" max="6" min="6" width="29"/>
+    <col customWidth="1" max="8" min="8" width="29"/>
+    <col customWidth="1" max="10" min="10" width="29"/>
+    <col customWidth="1" max="11" min="11" width="29"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>2</v>
+    <row customHeight="1" ht="40" r="1">
+      <c r="A1" s="2" t="n">
+        <v>1</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
+    <row customHeight="1" ht="40" r="2">
+      <c r="A2" s="2" t="n"/>
+      <c r="B2" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
+    <row customHeight="1" ht="40" r="3">
+      <c r="A3" s="2" t="n"/>
+      <c r="B3" s="2" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>6</v>
+    <row customHeight="1" ht="40" r="4">
+      <c r="A4" s="2" t="n"/>
+      <c r="B4" s="2" t="n">
+        <v>5</v>
       </c>
-      <c r="B4" t="n">
+    </row>
+    <row customHeight="1" ht="40" r="5">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="2" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>8</v>
+    <row customHeight="1" ht="40" r="6">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="2" t="n">
+        <v>7</v>
       </c>
-      <c r="B5" t="n">
+    </row>
+    <row customHeight="1" ht="40" r="7">
+      <c r="A7" s="2" t="n"/>
+      <c r="B7" s="2" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="6"/>
-    <row r="7"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/datas/test2.xlsx
+++ b/datas/test2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8370" windowWidth="20385"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12240" windowWidth="16665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -45,6 +45,105 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
       <sz val="11"/>
@@ -68,105 +167,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -194,6 +194,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -219,126 +339,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,30 +385,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -423,6 +399,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,6 +462,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -491,10 +491,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="23" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="18" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -503,133 +503,133 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="15" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="14" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="14" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="6" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="10" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="9" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="9" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="26" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -987,69 +987,35 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="19"/>
-    <col customWidth="1" max="2" min="2" width="19"/>
-    <col customWidth="1" max="3" min="3" width="29"/>
-    <col customWidth="1" max="4" min="4" width="29"/>
-    <col customWidth="1" max="5" min="5" width="29"/>
-    <col customWidth="1" max="6" min="6" width="29"/>
-    <col customWidth="1" max="8" min="8" width="29"/>
-    <col customWidth="1" max="10" min="10" width="29"/>
-    <col customWidth="1" max="11" min="11" width="29"/>
+    <col customWidth="1" max="1" min="1" width="10"/>
+    <col customWidth="1" max="11" min="2" width="10"/>
+    <col customWidth="1" max="3" min="3" width="10"/>
+    <col customWidth="1" max="4" min="4" width="10"/>
+    <col customWidth="1" max="5" min="5" width="10"/>
+    <col customWidth="1" max="6" min="6" width="10"/>
+    <col customWidth="1" max="7" min="7" width="10"/>
+    <col customWidth="1" max="8" min="8" width="10"/>
+    <col customWidth="1" max="9" min="9" width="10"/>
+    <col customWidth="1" max="10" min="10" width="10"/>
+    <col customWidth="1" max="11" min="11" width="10"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="40" r="1">
+    <row customHeight="1" ht="15" r="0"/>
+    <row customHeight="1" ht="15" r="1">
       <c r="A1" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="n">
-        <v>2</v>
-      </c>
     </row>
-    <row customHeight="1" ht="40" r="2">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="3">
-      <c r="A3" s="2" t="n"/>
-      <c r="B3" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="5">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="6">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="7">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n">
-        <v>8</v>
-      </c>
-    </row>
+    <row customHeight="1" ht="15" r="2"/>
+    <row customHeight="1" ht="15" r="3"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/datas/test2.xlsx
+++ b/datas/test2.xlsx
@@ -995,25 +995,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="10"/>
-    <col customWidth="1" max="11" min="2" width="10"/>
-    <col customWidth="1" max="3" min="3" width="10"/>
-    <col customWidth="1" max="4" min="4" width="10"/>
-    <col customWidth="1" max="5" min="5" width="10"/>
-    <col customWidth="1" max="6" min="6" width="10"/>
+    <col customWidth="1" max="1" min="1" width="19"/>
+    <col customWidth="1" max="11" min="2" width="19"/>
+    <col customWidth="1" max="3" min="3" width="29"/>
+    <col customWidth="1" max="4" min="4" width="29"/>
+    <col customWidth="1" max="5" min="5" width="29"/>
+    <col customWidth="1" max="6" min="6" width="29"/>
     <col customWidth="1" max="7" min="7" width="10"/>
-    <col customWidth="1" max="8" min="8" width="10"/>
+    <col customWidth="1" max="8" min="8" width="29"/>
     <col customWidth="1" max="9" min="9" width="10"/>
-    <col customWidth="1" max="10" min="10" width="10"/>
-    <col customWidth="1" max="11" min="11" width="10"/>
+    <col customWidth="1" max="10" min="10" width="29"/>
+    <col customWidth="1" max="11" min="11" width="29"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="15" r="0"/>
-    <row customHeight="1" ht="15" r="1">
-      <c r="A1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row customHeight="1" ht="40" r="1"/>
     <row customHeight="1" ht="15" r="2"/>
     <row customHeight="1" ht="15" r="3"/>
   </sheetData>
